--- a/storage/templates/units_template.xlsx
+++ b/storage/templates/units_template.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:BO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,22 +429,22 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>unit_uuid</t>
+          <t>unit_external_id</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>unit_external_id</t>
+          <t>project_code</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>project_code</t>
+          <t>property_code</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>property_code</t>
+          <t>property_type_name</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -454,175 +454,6383 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>neighborhood</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>status_reason</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>floor</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>building_surface_area</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>housh_area</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
         <is>
           <t>rooms</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>wc_number</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>parking_no</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>price_base</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>currency</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>exchange_rate</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>unit_type_name</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
         <is>
           <t>purpose</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>unit_type</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>owner_name</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>instrument_no</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>instrument_hijri_date</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>instrument_no_after_sales</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>unit_description_en</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>national_address</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>water_meter_no</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
         <is>
           <t>has_balcony</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>has_basement</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>has_basement_parking</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>has_big_housh</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>has_small_housh</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>has_housh</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>has_big_roof</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>has_small_roof</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
         <is>
           <t>has_roof</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>has_parking</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>note</t>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>has_rooftop</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>has_pool</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>has_pool_view</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>has_tennis_view</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>has_golf_view</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>has_caffe_view</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>has_waterfall</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>has_elevator</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>has_private_entrance</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>has_two_interfaces</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>has_security_system</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>has_internet</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>has_kitchen</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>has_laundry_room</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>has_internal_store</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>has_warehouse</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>has_living_room</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>has_family_lounge</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>has_big_lounge</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>has_food_area</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>has_council</t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>has_diwaniyah</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>has_diwan1</t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>has_mens_council</t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>has_womens_council</t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t>has_family_council</t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t>has_maids_room</t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>has_drivers_room</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t>has_terrace</t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t>has_outdoor</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UNIT-001</t>
+          <t>PROP-11-UNIT-1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>990e8400-e29b-41d4-a716-446655440999</t>
+          <t>PROP-11-EXT-1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EXT-UNIT-01</t>
+          <t>PRJ-001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>PROP-11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>121</v>
+      </c>
+      <c r="K2" t="n">
+        <v>141</v>
+      </c>
+      <c r="L2" t="n">
+        <v>16</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>760000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>730000</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Model-1</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>INS-111</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>INS-AFTER-111</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Unit 1 in PROP-11</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Riyadh - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>WM-111</t>
+        </is>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PROP-11-UNIT-2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PROP-11-EXT-2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>PRJ-001</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>PROP-001</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PROP-11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>145.75</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>122</v>
+      </c>
+      <c r="K3" t="n">
+        <v>142</v>
+      </c>
+      <c r="L3" t="n">
+        <v>17</v>
+      </c>
+      <c r="M3" t="n">
         <v>3</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N3" t="n">
         <v>3</v>
       </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>850000</v>
-      </c>
-      <c r="M2" t="n">
-        <v>820000</v>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="O3" t="n">
+        <v>770000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>740000</v>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>
       </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Model-2</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
         <is>
           <t>Apartment</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>INS-112</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>INS-AFTER-112</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Unit 2 in PROP-11</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Riyadh - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>WM-112</t>
+        </is>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PROP-11-UNIT-3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PROP-11-EXT-3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PRJ-001</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PROP-11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Residential</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Model-A</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Sample residential unit</t>
-        </is>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>123</v>
+      </c>
+      <c r="K4" t="n">
+        <v>143</v>
+      </c>
+      <c r="L4" t="n">
+        <v>18</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>780000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>750000</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Model-3</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>INS-113</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>INS-AFTER-113</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Unit 3 in PROP-11</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Riyadh - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>WM-113</t>
+        </is>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PROP-12-UNIT-1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PROP-12-EXT-1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PRJ-001</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PROP-12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>121</v>
+      </c>
+      <c r="K5" t="n">
+        <v>141</v>
+      </c>
+      <c r="L5" t="n">
+        <v>16</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>760000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>730000</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Model-1</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>INS-121</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>INS-AFTER-121</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Unit 1 in PROP-12</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Riyadh - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>WM-121</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PROP-12-UNIT-2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PROP-12-EXT-2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PRJ-001</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PROP-12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>122</v>
+      </c>
+      <c r="K6" t="n">
+        <v>142</v>
+      </c>
+      <c r="L6" t="n">
+        <v>17</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>770000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>740000</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Model-2</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>INS-122</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>INS-AFTER-122</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Unit 2 in PROP-12</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Riyadh - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>WM-122</t>
+        </is>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PROP-12-UNIT-3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PROP-12-EXT-3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PRJ-001</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PROP-12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>123</v>
+      </c>
+      <c r="K7" t="n">
+        <v>143</v>
+      </c>
+      <c r="L7" t="n">
+        <v>18</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>780000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>750000</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Model-3</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>INS-123</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>INS-AFTER-123</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Unit 3 in PROP-12</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Riyadh - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>WM-123</t>
+        </is>
+      </c>
+      <c r="AC7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PROP-13-UNIT-1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PROP-13-EXT-1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PRJ-001</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PROP-13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>121</v>
+      </c>
+      <c r="K8" t="n">
+        <v>141</v>
+      </c>
+      <c r="L8" t="n">
+        <v>16</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>760000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>730000</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Model-1</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>INS-131</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>INS-AFTER-131</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>Unit 1 in PROP-13</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Riyadh - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>WM-131</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PROP-13-UNIT-2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PROP-13-EXT-2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PRJ-001</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PROP-13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>122</v>
+      </c>
+      <c r="K9" t="n">
+        <v>142</v>
+      </c>
+      <c r="L9" t="n">
+        <v>17</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>770000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>740000</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Model-2</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>INS-132</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>INS-AFTER-132</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Unit 2 in PROP-13</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Riyadh - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>WM-132</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PROP-13-UNIT-3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PROP-13-EXT-3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PRJ-001</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PROP-13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>123</v>
+      </c>
+      <c r="K10" t="n">
+        <v>143</v>
+      </c>
+      <c r="L10" t="n">
+        <v>18</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>780000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>750000</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Model-3</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>INS-133</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>INS-AFTER-133</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Unit 3 in PROP-13</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Riyadh - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>WM-133</t>
+        </is>
+      </c>
+      <c r="AC10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PROP-21-UNIT-1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PROP-21-EXT-1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PRJ-002</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PROP-21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>121</v>
+      </c>
+      <c r="K11" t="n">
+        <v>141</v>
+      </c>
+      <c r="L11" t="n">
+        <v>16</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>760000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>730000</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Model-1</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>INS-211</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>INS-AFTER-211</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Unit 1 in PROP-21</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Jeddah - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>WM-211</t>
+        </is>
+      </c>
+      <c r="AC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PROP-21-UNIT-2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PROP-21-EXT-2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PRJ-002</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PROP-21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>122</v>
+      </c>
+      <c r="K12" t="n">
+        <v>142</v>
+      </c>
+      <c r="L12" t="n">
+        <v>17</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>770000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>740000</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Model-2</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>INS-212</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>INS-AFTER-212</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Unit 2 in PROP-21</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>Jeddah - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>WM-212</t>
+        </is>
+      </c>
+      <c r="AC12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PROP-21-UNIT-3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PROP-21-EXT-3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PRJ-002</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PROP-21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>123</v>
+      </c>
+      <c r="K13" t="n">
+        <v>143</v>
+      </c>
+      <c r="L13" t="n">
+        <v>18</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>780000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>750000</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Model-3</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>INS-213</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>INS-AFTER-213</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>Unit 3 in PROP-21</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Jeddah - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>WM-213</t>
+        </is>
+      </c>
+      <c r="AC13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PROP-22-UNIT-1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PROP-22-EXT-1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PRJ-002</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PROP-22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>121</v>
+      </c>
+      <c r="K14" t="n">
+        <v>141</v>
+      </c>
+      <c r="L14" t="n">
+        <v>16</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" t="n">
+        <v>760000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>730000</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Model-1</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>INS-221</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>INS-AFTER-221</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>Unit 1 in PROP-22</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Jeddah - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>WM-221</t>
+        </is>
+      </c>
+      <c r="AC14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PROP-22-UNIT-2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PROP-22-EXT-2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PRJ-002</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PROP-22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>122</v>
+      </c>
+      <c r="K15" t="n">
+        <v>142</v>
+      </c>
+      <c r="L15" t="n">
+        <v>17</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3</v>
+      </c>
+      <c r="O15" t="n">
+        <v>770000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>740000</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Model-2</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>INS-222</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>INS-AFTER-222</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>Unit 2 in PROP-22</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Jeddah - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>WM-222</t>
+        </is>
+      </c>
+      <c r="AC15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PROP-22-UNIT-3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PROP-22-EXT-3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PRJ-002</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PROP-22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>123</v>
+      </c>
+      <c r="K16" t="n">
+        <v>143</v>
+      </c>
+      <c r="L16" t="n">
+        <v>18</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>780000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>750000</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Model-3</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>INS-223</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>INS-AFTER-223</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Unit 3 in PROP-22</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Jeddah - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>WM-223</t>
+        </is>
+      </c>
+      <c r="AC16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PROP-23-UNIT-1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PROP-23-EXT-1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PRJ-002</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>PROP-23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>121</v>
+      </c>
+      <c r="K17" t="n">
+        <v>141</v>
+      </c>
+      <c r="L17" t="n">
+        <v>16</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>760000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>730000</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Model-1</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>INS-231</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>INS-AFTER-231</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>Unit 1 in PROP-23</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Jeddah - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>WM-231</t>
+        </is>
+      </c>
+      <c r="AC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PROP-23-UNIT-2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PROP-23-EXT-2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PRJ-002</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PROP-23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>122</v>
+      </c>
+      <c r="K18" t="n">
+        <v>142</v>
+      </c>
+      <c r="L18" t="n">
+        <v>17</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3</v>
+      </c>
+      <c r="O18" t="n">
+        <v>770000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>740000</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Model-2</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>INS-232</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>INS-AFTER-232</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Unit 2 in PROP-23</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>Jeddah - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>WM-232</t>
+        </is>
+      </c>
+      <c r="AC18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PROP-23-UNIT-3</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PROP-23-EXT-3</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PRJ-002</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PROP-23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>123</v>
+      </c>
+      <c r="K19" t="n">
+        <v>143</v>
+      </c>
+      <c r="L19" t="n">
+        <v>18</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>780000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>750000</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Model-3</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>INS-233</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>INS-AFTER-233</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Unit 3 in PROP-23</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>Jeddah - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>WM-233</t>
+        </is>
+      </c>
+      <c r="AC19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PROP-31-UNIT-1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PROP-31-EXT-1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PRJ-003</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>PROP-31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>121</v>
+      </c>
+      <c r="K20" t="n">
+        <v>141</v>
+      </c>
+      <c r="L20" t="n">
+        <v>16</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>760000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>730000</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Model-1</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>INS-311</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>INS-AFTER-311</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Unit 1 in PROP-31</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>Dammam - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>WM-311</t>
+        </is>
+      </c>
+      <c r="AC20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PROP-31-UNIT-2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PROP-31-EXT-2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PRJ-003</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PROP-31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>122</v>
+      </c>
+      <c r="K21" t="n">
+        <v>142</v>
+      </c>
+      <c r="L21" t="n">
+        <v>17</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>770000</v>
+      </c>
+      <c r="P21" t="n">
+        <v>740000</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Model-2</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>INS-312</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>INS-AFTER-312</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>Unit 2 in PROP-31</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>Dammam - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>WM-312</t>
+        </is>
+      </c>
+      <c r="AC21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PROP-31-UNIT-3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PROP-31-EXT-3</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PRJ-003</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>PROP-31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>123</v>
+      </c>
+      <c r="K22" t="n">
+        <v>143</v>
+      </c>
+      <c r="L22" t="n">
+        <v>18</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>780000</v>
+      </c>
+      <c r="P22" t="n">
+        <v>750000</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Model-3</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>INS-313</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>INS-AFTER-313</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>Unit 3 in PROP-31</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>Dammam - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>WM-313</t>
+        </is>
+      </c>
+      <c r="AC22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PROP-32-UNIT-1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PROP-32-EXT-1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PRJ-003</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>PROP-32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>121</v>
+      </c>
+      <c r="K23" t="n">
+        <v>141</v>
+      </c>
+      <c r="L23" t="n">
+        <v>16</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>760000</v>
+      </c>
+      <c r="P23" t="n">
+        <v>730000</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Model-1</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>INS-321</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>INS-AFTER-321</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>Unit 1 in PROP-32</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>Dammam - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>WM-321</t>
+        </is>
+      </c>
+      <c r="AC23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PROP-32-UNIT-2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PROP-32-EXT-2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PRJ-003</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PROP-32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>122</v>
+      </c>
+      <c r="K24" t="n">
+        <v>142</v>
+      </c>
+      <c r="L24" t="n">
+        <v>17</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3</v>
+      </c>
+      <c r="O24" t="n">
+        <v>770000</v>
+      </c>
+      <c r="P24" t="n">
+        <v>740000</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Model-2</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>INS-322</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>INS-AFTER-322</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Unit 2 in PROP-32</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>Dammam - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>WM-322</t>
+        </is>
+      </c>
+      <c r="AC24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PROP-32-UNIT-3</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PROP-32-EXT-3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PRJ-003</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PROP-32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>123</v>
+      </c>
+      <c r="K25" t="n">
+        <v>143</v>
+      </c>
+      <c r="L25" t="n">
+        <v>18</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3</v>
+      </c>
+      <c r="O25" t="n">
+        <v>780000</v>
+      </c>
+      <c r="P25" t="n">
+        <v>750000</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Model-3</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>INS-323</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>INS-AFTER-323</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>Unit 3 in PROP-32</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>Dammam - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>WM-323</t>
+        </is>
+      </c>
+      <c r="AC25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PROP-33-UNIT-1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PROP-33-EXT-1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PRJ-003</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>PROP-33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>121</v>
+      </c>
+      <c r="K26" t="n">
+        <v>141</v>
+      </c>
+      <c r="L26" t="n">
+        <v>16</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3</v>
+      </c>
+      <c r="O26" t="n">
+        <v>760000</v>
+      </c>
+      <c r="P26" t="n">
+        <v>730000</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Model-1</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>INS-331</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>INS-AFTER-331</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Unit 1 in PROP-33</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>Dammam - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>WM-331</t>
+        </is>
+      </c>
+      <c r="AC26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PROP-33-UNIT-2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PROP-33-EXT-2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PRJ-003</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>PROP-33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>122</v>
+      </c>
+      <c r="K27" t="n">
+        <v>142</v>
+      </c>
+      <c r="L27" t="n">
+        <v>17</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3</v>
+      </c>
+      <c r="O27" t="n">
+        <v>770000</v>
+      </c>
+      <c r="P27" t="n">
+        <v>740000</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Model-2</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>INS-332</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>INS-AFTER-332</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Unit 2 in PROP-33</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>Dammam - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>WM-332</t>
+        </is>
+      </c>
+      <c r="AC27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PROP-33-UNIT-3</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PROP-33-EXT-3</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PRJ-003</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>PROP-33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>123</v>
+      </c>
+      <c r="K28" t="n">
+        <v>143</v>
+      </c>
+      <c r="L28" t="n">
+        <v>18</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3</v>
+      </c>
+      <c r="O28" t="n">
+        <v>780000</v>
+      </c>
+      <c r="P28" t="n">
+        <v>750000</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Model-3</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Residential</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Alramz</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>INS-333</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>1445-05-12</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>INS-AFTER-333</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Unit 3 in PROP-33</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>Dammam - Sample Neighborhood</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>WM-333</t>
+        </is>
+      </c>
+      <c r="AC28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
